--- a/docs/test/test-report template-v1.1.xlsx
+++ b/docs/test/test-report template-v1.1.xlsx
@@ -1,24 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28209"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vunguyen/Google Drive/Data/Courses/CS 300 - Fall 2018/Projects/Templates/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PA\Year 3\Software Engineering\Lab\E-commerce\E-commerce_Web_Application\docs\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{375D325C-0551-4E0E-8137-5EF3D880DADD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="26660" windowHeight="16920"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test summary report" sheetId="1" r:id="rId1"/>
     <sheet name="Bug report" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,12 +38,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Vu V. Nguyen</author>
   </authors>
   <commentList>
-    <comment ref="D1" authorId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -45,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -58,7 +68,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -70,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="228">
   <si>
     <t>Tester</t>
   </si>
@@ -108,9 +118,6 @@
     <t>UC001</t>
   </si>
   <si>
-    <t>HTThanh, NKHuy</t>
-  </si>
-  <si>
     <t>Defect ID</t>
   </si>
   <si>
@@ -132,21 +139,9 @@
     <t>Date Reported</t>
   </si>
   <si>
-    <t>Unable to login with correct username and password</t>
-  </si>
-  <si>
-    <t>System does not allow to login even with correct username and passwords</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
-    <t>Incorrect lable for login button</t>
-  </si>
-  <si>
-    <t>The label should be "Đăng Nhập" for the login button in the login page instead of "Đăng nhap"</t>
-  </si>
-  <si>
     <t>Open</t>
   </si>
   <si>
@@ -156,17 +151,647 @@
     <t>Reported By</t>
   </si>
   <si>
-    <t>Vu Nguyen</t>
-  </si>
-  <si>
     <t>Low</t>
+  </si>
+  <si>
+    <t>Mai Đăng Khánh, Hồ Nguyễn Huy Hoàng</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Feature Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>UC01</t>
+  </si>
+  <si>
+    <t>Login as admin</t>
+  </si>
+  <si>
+    <t>Login as the manager of the cosmetic shop</t>
+  </si>
+  <si>
+    <t>UC02</t>
+  </si>
+  <si>
+    <t>Login as customer</t>
+  </si>
+  <si>
+    <t>Login as the custom of the cosmetic shop</t>
+  </si>
+  <si>
+    <t>UC03</t>
+  </si>
+  <si>
+    <t>Register as admin</t>
+  </si>
+  <si>
+    <t>Register a admin account</t>
+  </si>
+  <si>
+    <t>UC04</t>
+  </si>
+  <si>
+    <t>Register as customer</t>
+  </si>
+  <si>
+    <t>Register a customer account</t>
+  </si>
+  <si>
+    <t>UC05</t>
+  </si>
+  <si>
+    <t>Make purchase</t>
+  </si>
+  <si>
+    <t>Purchase all item in cart</t>
+  </si>
+  <si>
+    <t>UC06</t>
+  </si>
+  <si>
+    <t>Search product</t>
+  </si>
+  <si>
+    <t>Search product name or information in search bar</t>
+  </si>
+  <si>
+    <t>UC07</t>
+  </si>
+  <si>
+    <t>Browse product</t>
+  </si>
+  <si>
+    <t>View product summary and product detail</t>
+  </si>
+  <si>
+    <t>UC08</t>
+  </si>
+  <si>
+    <t>View cart</t>
+  </si>
+  <si>
+    <t>View all item in currently in cart</t>
+  </si>
+  <si>
+    <t>UC09</t>
+  </si>
+  <si>
+    <t>Edit product in cart</t>
+  </si>
+  <si>
+    <t>Change the attribute of a product currently in cart</t>
+  </si>
+  <si>
+    <t>UC10</t>
+  </si>
+  <si>
+    <t>Remove product from cart</t>
+  </si>
+  <si>
+    <t>Remove product in cart</t>
+  </si>
+  <si>
+    <t>UC11</t>
+  </si>
+  <si>
+    <t>Add product to cart</t>
+  </si>
+  <si>
+    <t>Add the viewing product to cart</t>
+  </si>
+  <si>
+    <t>Add new product</t>
+  </si>
+  <si>
+    <t>Admin add a new product to shop</t>
+  </si>
+  <si>
+    <t>UC13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit product </t>
+  </si>
+  <si>
+    <t>Admin edit the information of a product in shop</t>
+  </si>
+  <si>
+    <t>UC14</t>
+  </si>
+  <si>
+    <t>Delete product</t>
+  </si>
+  <si>
+    <t>Admin delete  a product in shop</t>
+  </si>
+  <si>
+    <t>UC15</t>
+  </si>
+  <si>
+    <t>Edit profile as admin</t>
+  </si>
+  <si>
+    <t>Change information about admin user</t>
+  </si>
+  <si>
+    <t>UC16</t>
+  </si>
+  <si>
+    <t>Edit profile as customer</t>
+  </si>
+  <si>
+    <t>Change information about customer</t>
+  </si>
+  <si>
+    <t>UC17</t>
+  </si>
+  <si>
+    <t>View shopping history</t>
+  </si>
+  <si>
+    <t>View all item purchased</t>
+  </si>
+  <si>
+    <t>UC20</t>
+  </si>
+  <si>
+    <t>Add comment</t>
+  </si>
+  <si>
+    <t>Comment about a product in produt detail</t>
+  </si>
+  <si>
+    <t>UC21</t>
+  </si>
+  <si>
+    <t>Change password as admin</t>
+  </si>
+  <si>
+    <t>Change password of admin account</t>
+  </si>
+  <si>
+    <t>Change password as customer</t>
+  </si>
+  <si>
+    <t>Change password of customer account</t>
+  </si>
+  <si>
+    <t>UC23</t>
+  </si>
+  <si>
+    <t>Website navigation</t>
+  </si>
+  <si>
+    <t>Navigate the website from homepage</t>
+  </si>
+  <si>
+    <t>UC24</t>
+  </si>
+  <si>
+    <t>Order management</t>
+  </si>
+  <si>
+    <t>Choose and delete order</t>
+  </si>
+  <si>
+    <t>UC25</t>
+  </si>
+  <si>
+    <t>User management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add, reset or remove user account </t>
+  </si>
+  <si>
+    <t>Number of Test case</t>
+  </si>
+  <si>
+    <t>Number of Pass</t>
+  </si>
+  <si>
+    <t>Number of Test fail</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>B003</t>
+  </si>
+  <si>
+    <t>B004</t>
+  </si>
+  <si>
+    <t>B005</t>
+  </si>
+  <si>
+    <t>B006</t>
+  </si>
+  <si>
+    <t>B007</t>
+  </si>
+  <si>
+    <t>B008</t>
+  </si>
+  <si>
+    <t>B009</t>
+  </si>
+  <si>
+    <t>B010</t>
+  </si>
+  <si>
+    <t>B011</t>
+  </si>
+  <si>
+    <t>B012</t>
+  </si>
+  <si>
+    <t>B013</t>
+  </si>
+  <si>
+    <t>B014</t>
+  </si>
+  <si>
+    <t>B015</t>
+  </si>
+  <si>
+    <t>B016</t>
+  </si>
+  <si>
+    <t>B017</t>
+  </si>
+  <si>
+    <t>B018</t>
+  </si>
+  <si>
+    <t>B019</t>
+  </si>
+  <si>
+    <t>B020</t>
+  </si>
+  <si>
+    <t>B021</t>
+  </si>
+  <si>
+    <t>B022</t>
+  </si>
+  <si>
+    <t>B023</t>
+  </si>
+  <si>
+    <t>B024</t>
+  </si>
+  <si>
+    <t>B025</t>
+  </si>
+  <si>
+    <t>B026</t>
+  </si>
+  <si>
+    <t>B027</t>
+  </si>
+  <si>
+    <t>B028</t>
+  </si>
+  <si>
+    <t>B029</t>
+  </si>
+  <si>
+    <t>B030</t>
+  </si>
+  <si>
+    <t>B031</t>
+  </si>
+  <si>
+    <t>B032</t>
+  </si>
+  <si>
+    <t>B033</t>
+  </si>
+  <si>
+    <t>B034</t>
+  </si>
+  <si>
+    <t>B035</t>
+  </si>
+  <si>
+    <t>B036</t>
+  </si>
+  <si>
+    <t>B037</t>
+  </si>
+  <si>
+    <t>B038</t>
+  </si>
+  <si>
+    <t>B039</t>
+  </si>
+  <si>
+    <t>B040</t>
+  </si>
+  <si>
+    <t>B041</t>
+  </si>
+  <si>
+    <t>B042</t>
+  </si>
+  <si>
+    <t>B043</t>
+  </si>
+  <si>
+    <t>B044</t>
+  </si>
+  <si>
+    <t>B045</t>
+  </si>
+  <si>
+    <t>B046</t>
+  </si>
+  <si>
+    <t>B047</t>
+  </si>
+  <si>
+    <t>B048</t>
+  </si>
+  <si>
+    <t>B049</t>
+  </si>
+  <si>
+    <t>B050</t>
+  </si>
+  <si>
+    <t>B051</t>
+  </si>
+  <si>
+    <t>B052</t>
+  </si>
+  <si>
+    <t>B053</t>
+  </si>
+  <si>
+    <t>B054</t>
+  </si>
+  <si>
+    <t>B055</t>
+  </si>
+  <si>
+    <t>B056</t>
+  </si>
+  <si>
+    <t>B057</t>
+  </si>
+  <si>
+    <t>Login with Special characters in User name as Admin</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Mai Đăng Khánh</t>
+  </si>
+  <si>
+    <t>Register with user name contain special character</t>
+  </si>
+  <si>
+    <t>UC003</t>
+  </si>
+  <si>
+    <t>Register with password contain space character</t>
+  </si>
+  <si>
+    <t>Register with fullname contain special character</t>
+  </si>
+  <si>
+    <t>Register with blank fullname</t>
+  </si>
+  <si>
+    <t>Search by category name</t>
+  </si>
+  <si>
+    <t>UC006</t>
+  </si>
+  <si>
+    <t>UC013</t>
+  </si>
+  <si>
+    <t>UC014</t>
+  </si>
+  <si>
+    <t>System allows user to enter special character for user name</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> System allows user to enter special character for user name while regiseter</t>
+  </si>
+  <si>
+    <t>System allows user to enter space character for password while register</t>
+  </si>
+  <si>
+    <t>System allows user to not enter fullname while register</t>
+  </si>
+  <si>
+    <t>System does not support search product by category name</t>
+  </si>
+  <si>
+    <t>Search by exact price</t>
+  </si>
+  <si>
+    <t>Search by price range</t>
+  </si>
+  <si>
+    <t>System does not support search product by their price name</t>
+  </si>
+  <si>
+    <t>System does not support search product belong to specify price range name</t>
+  </si>
+  <si>
+    <t>Add new valid product</t>
+  </si>
+  <si>
+    <t>Cannot add new porduct to store</t>
+  </si>
+  <si>
+    <t>Hồ Nguyễn Huy Hoàng</t>
+  </si>
+  <si>
+    <t>Function is not implemented</t>
+  </si>
+  <si>
+    <t>Edit product with Product name contain special character</t>
+  </si>
+  <si>
+    <t>Edit product with stock contain special character</t>
+  </si>
+  <si>
+    <t>Edit product with negative stock number</t>
+  </si>
+  <si>
+    <t>Price contain special character</t>
+  </si>
+  <si>
+    <t>Price negative number</t>
+  </si>
+  <si>
+    <t>category contain special character</t>
+  </si>
+  <si>
+    <t>Product category not exist</t>
+  </si>
+  <si>
+    <t>Invalid big image file extension</t>
+  </si>
+  <si>
+    <t>Invalid small image file extension</t>
+  </si>
+  <si>
+    <t>System accept special character for  price when edit, display edit success</t>
+  </si>
+  <si>
+    <t>System accept special character for  product name when edit, display edit success</t>
+  </si>
+  <si>
+    <t>System accept special character for  stock number when edit, display edit success</t>
+  </si>
+  <si>
+    <t>System accept negative number for  stock when edit, display edit success</t>
+  </si>
+  <si>
+    <t>System accept negative for  price when edit, display edit success</t>
+  </si>
+  <si>
+    <t>System accept non-existed category for  category when edit, redirect to new page with error message</t>
+  </si>
+  <si>
+    <t>System accept special character for  category when edit, display edit success</t>
+  </si>
+  <si>
+    <t>System accept any type of file, not just image, display edit success</t>
+  </si>
+  <si>
+    <t>delete by non existing id</t>
+  </si>
+  <si>
+    <t>delete by id contain special character</t>
+  </si>
+  <si>
+    <t>delete by id as character</t>
+  </si>
+  <si>
+    <t>Even product is not exist, display message success</t>
+  </si>
+  <si>
+    <t>UC015</t>
+  </si>
+  <si>
+    <t>Redirect to new page with non-style database error</t>
+  </si>
+  <si>
+    <t>Enter character as product id, redirect to new page with non-style database error</t>
+  </si>
+  <si>
+    <t>Edit profile Fullname contain special character</t>
+  </si>
+  <si>
+    <t>Edit profile Address contains special characters</t>
+  </si>
+  <si>
+    <t>UC017</t>
+  </si>
+  <si>
+    <t>Enter special character for fullname when edit profile, system accept the special charater for fullname</t>
+  </si>
+  <si>
+    <t>Enter special character for address when edit profile, system accept the special charater for address</t>
+  </si>
+  <si>
+    <t>Switch to tab Order history</t>
+  </si>
+  <si>
+    <t>Switch to tab Address</t>
+  </si>
+  <si>
+    <t>Switch to tab Security</t>
+  </si>
+  <si>
+    <t>Switch to tab Order management</t>
+  </si>
+  <si>
+    <t>While edit profile, switch tab should discard the change or at least display message that there are unsave changes. However, the changes are not discard</t>
+  </si>
+  <si>
+    <t>View order date</t>
+  </si>
+  <si>
+    <t>View receive date</t>
+  </si>
+  <si>
+    <t>UC020</t>
+  </si>
+  <si>
+    <t>The displayed date time format should be the simple format, but system display the long date time formate</t>
+  </si>
+  <si>
+    <t>Duplicated</t>
+  </si>
+  <si>
+    <t>Long comment (&gt;1000 character)</t>
+  </si>
+  <si>
+    <t>Long comment (&gt;10000 characters)</t>
+  </si>
+  <si>
+    <t>Comment without rating</t>
+  </si>
+  <si>
+    <t>UC021</t>
+  </si>
+  <si>
+    <t>Can not have a too long comment, when submit nothing happen</t>
+  </si>
+  <si>
+    <t>There seem to be a limit to the length of comment but is not specified how long. Testing indicate around (100,1000) character</t>
+  </si>
+  <si>
+    <t>Comment should always have rating for product, but we can submit comment without rating but nothing is displayed</t>
+  </si>
+  <si>
+    <t>New and old passwords are the same</t>
+  </si>
+  <si>
+    <t>UC023</t>
+  </si>
+  <si>
+    <t>UC26</t>
+  </si>
+  <si>
+    <t>UC27</t>
+  </si>
+  <si>
+    <t>System do not detect that the old password and new password are the same</t>
+  </si>
+  <si>
+    <t>Choose order to remove but encounter error Request not found</t>
+  </si>
+  <si>
+    <t>UC026</t>
+  </si>
+  <si>
+    <t>Admin manage user account, add, reset password, remove account. When take any action, encounter error request not found</t>
+  </si>
+  <si>
+    <t>UC027</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="m/d/yy"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +804,30 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,8 +840,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -202,11 +855,113 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="medium">
+        <color theme="4"/>
+      </right>
+      <top style="medium">
+        <color theme="4"/>
+      </top>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -225,6 +980,29 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,7 +1015,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <numFmt numFmtId="164" formatCode="m/d/yy"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -278,17 +1056,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:I9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:I58" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <tableColumns count="9">
-    <tableColumn id="1" name="Defect ID" dataDxfId="8"/>
-    <tableColumn id="3" name="Defect Title" dataDxfId="7"/>
-    <tableColumn id="11" name="Defect Description" dataDxfId="6"/>
-    <tableColumn id="10" name="Function ID" dataDxfId="5"/>
-    <tableColumn id="5" name="Severity" dataDxfId="4"/>
-    <tableColumn id="12" name="Reported By" dataDxfId="3"/>
-    <tableColumn id="6" name="Date Reported" dataDxfId="2"/>
-    <tableColumn id="8" name="Status" dataDxfId="1"/>
-    <tableColumn id="9" name="Comment" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Defect ID" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Defect Title" dataDxfId="7"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Defect Description" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Function ID" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Severity" dataDxfId="4"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Reported By" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date Reported" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Status" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Comment" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -580,28 +1358,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.1640625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="5" width="10.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="2" max="2" width="34.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="47.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -609,12 +1388,12 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="5">
-        <v>43462</v>
+        <v>44197</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -622,58 +1401,603 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B3" s="2"/>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="17">
+        <v>7</v>
+      </c>
+      <c r="E5" s="17">
+        <v>6</v>
+      </c>
+      <c r="F5" s="17">
+        <f>D5-E5</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="17">
+        <v>7</v>
+      </c>
+      <c r="E6" s="17">
+        <v>6</v>
+      </c>
+      <c r="F6" s="17">
+        <f t="shared" ref="F6:F27" si="0">D6-E6</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="17">
+        <v>12</v>
+      </c>
+      <c r="E7" s="17">
+        <v>8</v>
+      </c>
+      <c r="F7" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="17">
+        <v>12</v>
+      </c>
+      <c r="E8" s="17">
+        <v>8</v>
+      </c>
+      <c r="F8" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="G8" s="18"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="17">
+        <v>12</v>
+      </c>
+      <c r="E9" s="17">
+        <v>12</v>
+      </c>
+      <c r="F9" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="17">
+        <v>8</v>
+      </c>
+      <c r="E10" s="17">
+        <v>5</v>
+      </c>
+      <c r="F10" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="17">
+        <v>10</v>
+      </c>
+      <c r="E11" s="17">
+        <v>7</v>
+      </c>
+      <c r="F11" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="17">
+        <v>12</v>
+      </c>
+      <c r="E12" s="17">
+        <v>12</v>
+      </c>
+      <c r="F12" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="17">
+        <v>9</v>
+      </c>
+      <c r="E13" s="17">
+        <v>9</v>
+      </c>
+      <c r="F13" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="17">
+        <v>5</v>
+      </c>
+      <c r="E14" s="17">
+        <v>5</v>
+      </c>
+      <c r="F14" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="17">
+        <v>6</v>
+      </c>
+      <c r="E15" s="17">
+        <v>6</v>
+      </c>
+      <c r="F15" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="17">
+        <v>16</v>
+      </c>
+      <c r="E16" s="17">
+        <v>15</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="17">
+        <v>20</v>
+      </c>
+      <c r="E17" s="17">
+        <v>11</v>
+      </c>
+      <c r="F17" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="17">
+        <v>5</v>
+      </c>
+      <c r="E18" s="17">
+        <v>2</v>
+      </c>
+      <c r="F18" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="17">
+        <v>12</v>
+      </c>
+      <c r="E19" s="17">
+        <v>6</v>
+      </c>
+      <c r="F19" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G19" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="17">
+        <v>13</v>
+      </c>
+      <c r="E20" s="17">
+        <v>7</v>
+      </c>
+      <c r="F20" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="17">
+        <v>4</v>
+      </c>
+      <c r="E21" s="17">
+        <v>2</v>
+      </c>
+      <c r="F21" s="17">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="17">
+        <v>12</v>
+      </c>
+      <c r="E22" s="17">
+        <v>9</v>
+      </c>
+      <c r="F22" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="17">
+        <v>8</v>
+      </c>
+      <c r="E23" s="17">
+        <v>7</v>
+      </c>
+      <c r="F23" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G23" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D24" s="17">
+        <v>8</v>
+      </c>
+      <c r="E24" s="17">
+        <v>7</v>
+      </c>
+      <c r="F24" s="17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="17">
+        <v>13</v>
+      </c>
+      <c r="E25" s="17">
+        <v>13</v>
+      </c>
+      <c r="F25" s="17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="17">
+        <v>4</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0</v>
+      </c>
+      <c r="F26" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="19">
+        <v>7</v>
+      </c>
+      <c r="E27" s="19">
+        <v>2</v>
+      </c>
+      <c r="F27" s="19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C28" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="21">
+        <f>SUM(D5:D27)</f>
+        <v>222</v>
+      </c>
+      <c r="E28" s="21">
+        <f t="shared" ref="E28:F28" si="1">SUM(E5:E27)</f>
+        <v>165</v>
+      </c>
+      <c r="F28" s="22">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G19:G20"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="120" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="37.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="1" width="9.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="37.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6328125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.1796875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.36328125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1796875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>3</v>
@@ -682,77 +2006,1071 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>148</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>15</v>
+        <v>160</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>150</v>
       </c>
       <c r="G2" s="7">
-        <v>43459</v>
+        <v>44185</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G3" s="7">
+        <v>44185</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G4" s="7">
+        <v>44185</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="7">
+        <v>44185</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G6" s="7">
+        <v>44185</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="7">
-        <v>43459</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G4" s="7"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G9" s="7"/>
+      <c r="F7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G7" s="7">
+        <v>44185</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="7">
+        <v>44185</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G9" s="7">
+        <v>44185</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G10" s="14">
+        <v>44197</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G11" s="14">
+        <v>44191</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G12" s="14">
+        <v>44191</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G13" s="14">
+        <v>44191</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G14" s="14">
+        <v>44191</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G15" s="14">
+        <v>44191</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G16" s="14">
+        <v>44191</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G17" s="14">
+        <v>44191</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" s="14">
+        <v>44191</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G19" s="14">
+        <v>44191</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B20" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G20" s="14">
+        <v>44192</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G21" s="14">
+        <v>44192</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G22" s="14">
+        <v>44192</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" s="16">
+        <v>44197</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G24" s="16">
+        <v>44197</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A25" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G25" s="16">
+        <v>44197</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G26" s="16">
+        <v>44197</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G27" s="16">
+        <v>44197</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="58" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="G28" s="16">
+        <v>44197</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G29" s="14">
+        <v>44188</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G30" s="14">
+        <v>44188</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G31" s="14">
+        <v>44187</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B32" s="15" t="s">
+        <v>213</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G32" s="14">
+        <v>44187</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G33" s="14">
+        <v>44187</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G34" s="14">
+        <v>44187</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="14">
+        <v>44188</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G36" s="14">
+        <v>44195</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="G37" s="14"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="G38" s="14"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G39" s="14"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="14"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G41" s="14"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G42" s="14"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="G43" s="14"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G44" s="14"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="G45" s="14"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="14"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="G47" s="14"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="G48" s="14"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="G49" s="14"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="G50" s="14"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="14"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="14"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="G53" s="14"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" s="14"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="G55" s="14"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G56" s="14"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="14"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="14"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
